--- a/Finance Universe/NILE.xlsx
+++ b/Finance Universe/NILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5ADB31-DD11-4B14-8CDD-42EEBC8001FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA75AA6-BDB3-4F61-9606-27DDCB43EBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="3300" windowWidth="24975" windowHeight="16200" xr2:uid="{26859212-7170-437F-A3C2-9125627FEB43}"/>
+    <workbookView xWindow="7710" yWindow="2415" windowWidth="30690" windowHeight="18585" activeTab="1" xr2:uid="{26859212-7170-437F-A3C2-9125627FEB43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +330,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,10 +363,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,8 +375,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,11 +694,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28786735-78BE-4594-A130-CACF680543EA}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +707,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -726,7 +745,7 @@
       <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="O2" t="s">
@@ -760,6 +779,10 @@
       <c r="M4">
         <v>7.8029999999999999</v>
       </c>
+      <c r="N4">
+        <f>32.096-M4-L4-K4</f>
+        <v>7.8239999999999954</v>
+      </c>
       <c r="O4">
         <v>8.6590000000000007</v>
       </c>
@@ -783,6 +806,10 @@
       <c r="M5">
         <v>0.27200000000000002</v>
       </c>
+      <c r="N5">
+        <f>3.45-M5-L5-K5</f>
+        <v>2.7570000000000001</v>
+      </c>
       <c r="O5">
         <v>3.548</v>
       </c>
@@ -806,6 +833,10 @@
       <c r="M6">
         <v>0</v>
       </c>
+      <c r="N6">
+        <f>0-M6-L6-K6</f>
+        <v>0</v>
+      </c>
       <c r="O6">
         <v>2.698</v>
       </c>
@@ -829,6 +860,10 @@
       <c r="M7">
         <v>-38.869</v>
       </c>
+      <c r="N7">
+        <f>16.854-M7-L7-K7</f>
+        <v>-2.7610000000000019</v>
+      </c>
       <c r="O7">
         <v>17.920999999999999</v>
       </c>
@@ -889,7 +924,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.8199999999999941</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
@@ -917,6 +952,10 @@
       <c r="M9">
         <v>5.0110000000000001</v>
       </c>
+      <c r="N9">
+        <f>23.858-M9-L9-K9</f>
+        <v>7.461000000000003</v>
+      </c>
       <c r="O9">
         <v>10.494</v>
       </c>
@@ -940,6 +979,9 @@
       <c r="M10">
         <v>0.26</v>
       </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -963,6 +1005,9 @@
       <c r="M11">
         <v>0</v>
       </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -978,63 +1023,63 @@
         <v>31</v>
       </c>
       <c r="C12" s="2">
-        <f>SUM(C9:C11)</f>
+        <f t="shared" ref="C12:Q12" si="1">SUM(C9:C11)</f>
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(D9:D11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f>SUM(E9:E11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f>SUM(F9:F11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f>SUM(G9:G11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>SUM(H9:H11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>SUM(I9:I11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <f>SUM(J9:J11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f>SUM(K9:K11)</f>
+        <f t="shared" si="1"/>
         <v>5.1079999999999997</v>
       </c>
       <c r="L12" s="2">
-        <f>SUM(L9:L11)</f>
+        <f t="shared" si="1"/>
         <v>6.2779999999999996</v>
       </c>
       <c r="M12" s="2">
-        <f>SUM(M9:M11)</f>
+        <f t="shared" si="1"/>
         <v>5.2709999999999999</v>
       </c>
       <c r="N12" s="2">
-        <f>SUM(N9:N11)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.461000000000003</v>
       </c>
       <c r="O12" s="2">
-        <f>SUM(O9:O11)</f>
+        <f t="shared" si="1"/>
         <v>10.494</v>
       </c>
       <c r="P12" s="2">
-        <f>SUM(P9:P11)</f>
+        <f t="shared" si="1"/>
         <v>12.369</v>
       </c>
       <c r="Q12" s="2">
-        <f>SUM(Q9:Q11)</f>
+        <f t="shared" si="1"/>
         <v>28.678000000000001</v>
       </c>
     </row>
@@ -1051,6 +1096,9 @@
       <c r="M13">
         <v>0.52400000000000002</v>
       </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
       <c r="O13">
         <v>0.69499999999999995</v>
       </c>
@@ -1074,6 +1122,9 @@
       <c r="M14">
         <v>1.9930000000000001</v>
       </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
       <c r="O14">
         <v>6.4809999999999999</v>
       </c>
@@ -1097,6 +1148,9 @@
       <c r="M15">
         <v>11.292</v>
       </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="O15">
         <v>13.686999999999999</v>
       </c>
@@ -1120,6 +1174,9 @@
       <c r="M16">
         <v>0</v>
       </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -1143,6 +1200,9 @@
       <c r="M17">
         <v>0</v>
       </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
       <c r="O17">
         <v>0.439</v>
       </c>
@@ -1158,59 +1218,59 @@
         <v>37</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:P18" si="1">SUM(C13:C17)</f>
+        <f t="shared" ref="C18:P18" si="2">SUM(C13:C17)</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9359999999999999</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.028</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.809000000000001</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.302</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.716000000000001</v>
       </c>
       <c r="Q18" s="2">
@@ -1231,6 +1291,10 @@
       <c r="M19">
         <v>0.125</v>
       </c>
+      <c r="N19">
+        <f>0.808-M19-L19-K19</f>
+        <v>0.63200000000000001</v>
+      </c>
       <c r="O19">
         <v>0.44900000000000001</v>
       </c>
@@ -1254,6 +1318,9 @@
       <c r="M20">
         <v>4.21</v>
       </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
       <c r="O20">
         <v>0</v>
       </c>
@@ -1277,6 +1344,10 @@
       <c r="M21">
         <v>-0.14000000000000001</v>
       </c>
+      <c r="N21">
+        <f>-1.871-M21-L21-K21</f>
+        <v>-1.3949999999999998</v>
+      </c>
       <c r="O21">
         <v>-29.824000000000002</v>
       </c>
@@ -1300,6 +1371,10 @@
       <c r="M22">
         <v>-0.75</v>
       </c>
+      <c r="N22">
+        <f>-1.327-M22-L22-K22</f>
+        <v>-0.62199999999999989</v>
+      </c>
       <c r="O22">
         <v>0</v>
       </c>
@@ -1323,6 +1398,10 @@
       <c r="M23">
         <v>0.03</v>
       </c>
+      <c r="N23">
+        <f>1.924-M23-L23-K23</f>
+        <v>1.4969999999999999</v>
+      </c>
       <c r="O23">
         <v>0.109</v>
       </c>
@@ -1346,6 +1425,10 @@
       <c r="M24">
         <v>0</v>
       </c>
+      <c r="N24">
+        <f>-0.311-M24-L24-K24</f>
+        <v>-0.311</v>
+      </c>
       <c r="O24">
         <v>-0.53300000000000003</v>
       </c>
@@ -1369,6 +1452,10 @@
       <c r="M25">
         <v>0</v>
       </c>
+      <c r="N25">
+        <f>0.929-M25-L25-K25</f>
+        <v>0</v>
+      </c>
       <c r="O25">
         <v>0</v>
       </c>
@@ -1392,6 +1479,10 @@
       <c r="M26">
         <v>0.25900000000000001</v>
       </c>
+      <c r="N26">
+        <f>-0.542-M26-L26-K26</f>
+        <v>-0.41199999999999992</v>
+      </c>
       <c r="O26">
         <v>-1.7999999999999999E-2</v>
       </c>
@@ -1407,59 +1498,59 @@
         <v>51</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:P27" si="2">SUM(C19:C26)</f>
+        <f t="shared" ref="C27:P27" si="3">SUM(C19:C26)</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8830000000000002</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.1859999999999999</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.734</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-0.61099999999999977</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-29.817</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.1489999999999996</v>
       </c>
       <c r="Q27" s="2">
@@ -1472,63 +1563,63 @@
         <v>46</v>
       </c>
       <c r="C28" s="2">
-        <f>C8-C12-C18+C27</f>
+        <f t="shared" ref="C28:Q28" si="4">C8-C12-C18+C27</f>
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <f>D8-D12-D18+D27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <f>E8-E12-E18+E27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <f>F8-F12-F18+F27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f>G8-G12-G18+G27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <f>H8-H12-H18+H27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>I8-I12-I18+I27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <f>J8-J12-J18+J27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K28" s="2">
-        <f>K8-K12-K18+K27</f>
+        <f t="shared" si="4"/>
         <v>3.0840000000000005</v>
       </c>
       <c r="L28" s="2">
-        <f>L8-L12-L18+L27</f>
+        <f t="shared" si="4"/>
         <v>44.637000000000008</v>
       </c>
       <c r="M28" s="2">
-        <f>M8-M12-M18+M27</f>
+        <f t="shared" si="4"/>
         <v>-46.139999999999993</v>
       </c>
       <c r="N28" s="2">
-        <f>N8-N12-N18+N27</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-0.25200000000000866</v>
       </c>
       <c r="O28" s="2">
-        <f>O8-O12-O18+O27</f>
+        <f t="shared" si="4"/>
         <v>-28.786999999999999</v>
       </c>
       <c r="P28" s="2">
-        <f>P8-P12-P18+P27</f>
+        <f t="shared" si="4"/>
         <v>-25.868000000000002</v>
       </c>
       <c r="Q28" s="2">
-        <f>Q8-Q12-Q18+Q27</f>
+        <f t="shared" si="4"/>
         <v>-7.8520000000000039</v>
       </c>
     </row>
@@ -1545,6 +1636,10 @@
       <c r="M29">
         <v>-3.3660000000000001</v>
       </c>
+      <c r="N29">
+        <f>0.13-M29-L29-K29</f>
+        <v>-1.4000000000000007E-2</v>
+      </c>
       <c r="O29">
         <v>0</v>
       </c>
@@ -1560,59 +1655,59 @@
         <v>47</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:P30" si="3">C28-C29</f>
+        <f t="shared" ref="C30:P30" si="5">C28-C29</f>
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0780000000000007</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41.13300000000001</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-42.773999999999994</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-0.23800000000000865</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-28.786999999999999</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-26.085000000000001</v>
       </c>
       <c r="Q30" s="2">
@@ -1625,59 +1720,59 @@
         <v>50</v>
       </c>
       <c r="C31" s="5" t="e">
-        <f t="shared" ref="C31:P31" si="4">C30/C32</f>
+        <f t="shared" ref="C31:P31" si="6">C30/C32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.8408396168738556E-2</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.80997577929622133</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.72514282808076347</v>
       </c>
-      <c r="N31" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="N31" s="5">
+        <f t="shared" si="6"/>
+        <v>-2.8000000000001019E-3</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.316441503336228</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-9.0050125659366445E-2</v>
       </c>
       <c r="Q31" s="5">
@@ -1706,7 +1801,9 @@
       <c r="M32" s="2">
         <v>58.987000000000002</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2">
+        <v>85</v>
+      </c>
       <c r="O32" s="2">
         <v>90.971000000000004</v>
       </c>
@@ -1727,63 +1824,63 @@
         <v>63</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35" si="5">C36-C60</f>
+        <f t="shared" ref="C35" si="7">C36-C60</f>
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35" si="6">D36-D60</f>
+        <f t="shared" ref="D35" si="8">D36-D60</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35" si="7">E36-E60</f>
+        <f t="shared" ref="E35" si="9">E36-E60</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35" si="8">F36-F60</f>
+        <f t="shared" ref="F35" si="10">F36-F60</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35" si="9">G36-G60</f>
+        <f t="shared" ref="G35" si="11">G36-G60</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35" si="10">H36-H60</f>
+        <f t="shared" ref="H35" si="12">H36-H60</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35" si="11">I36-I60</f>
+        <f t="shared" ref="I35" si="13">I36-I60</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35" si="12">J36-J60</f>
+        <f t="shared" ref="J35" si="14">J36-J60</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35" si="13">K36-K60</f>
+        <f t="shared" ref="K35" si="15">K36-K60</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35" si="14">L36-L60</f>
+        <f t="shared" ref="L35" si="16">L36-L60</f>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35" si="15">M36-M60</f>
+        <f t="shared" ref="M35" si="17">M36-M60</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35" si="16">N36-N60</f>
-        <v>0</v>
+        <f t="shared" ref="N35" si="18">N36-N60</f>
+        <v>-63.436</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35" si="17">O36-O60</f>
+        <f t="shared" ref="O35" si="19">O36-O60</f>
         <v>-43.592000000000013</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P35:Q35" si="18">P36-P60</f>
+        <f t="shared" ref="P35:Q35" si="20">P36-P60</f>
         <v>-98.372</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-131.27000000000001</v>
       </c>
     </row>
@@ -1791,6 +1888,9 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
+      <c r="N36">
+        <v>15.912000000000001</v>
+      </c>
       <c r="O36">
         <v>39.445999999999998</v>
       </c>
@@ -1805,6 +1905,9 @@
       <c r="B37" t="s">
         <v>53</v>
       </c>
+      <c r="N37">
+        <v>5.3209999999999997</v>
+      </c>
       <c r="O37">
         <v>4.6950000000000003</v>
       </c>
@@ -1819,6 +1922,9 @@
       <c r="B38" t="s">
         <v>54</v>
       </c>
+      <c r="N38">
+        <v>40.380000000000003</v>
+      </c>
       <c r="O38">
         <v>16.158000000000001</v>
       </c>
@@ -1833,6 +1939,9 @@
       <c r="B39" t="s">
         <v>55</v>
       </c>
+      <c r="N39">
+        <v>2.165</v>
+      </c>
       <c r="O39">
         <v>0.745</v>
       </c>
@@ -1847,6 +1956,10 @@
       <c r="B40" t="s">
         <v>56</v>
       </c>
+      <c r="N40">
+        <f>5.259+1.196</f>
+        <v>6.4550000000000001</v>
+      </c>
       <c r="O40">
         <v>6.9770000000000003</v>
       </c>
@@ -1861,6 +1974,9 @@
       <c r="B41" t="s">
         <v>57</v>
       </c>
+      <c r="N41">
+        <v>1.169</v>
+      </c>
       <c r="O41">
         <v>2.7229999999999999</v>
       </c>
@@ -1875,6 +1991,9 @@
       <c r="B42" t="s">
         <v>58</v>
       </c>
+      <c r="N42">
+        <v>2.2829999999999999</v>
+      </c>
       <c r="O42">
         <v>7.1440000000000001</v>
       </c>
@@ -1889,6 +2008,9 @@
       <c r="B43" t="s">
         <v>59</v>
       </c>
+      <c r="N43">
+        <v>5.4820000000000002</v>
+      </c>
       <c r="O43">
         <v>0</v>
       </c>
@@ -1903,6 +2025,9 @@
       <c r="B44" t="s">
         <v>60</v>
       </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
       <c r="O44">
         <v>0</v>
       </c>
@@ -1917,6 +2042,9 @@
       <c r="B45" t="s">
         <v>61</v>
       </c>
+      <c r="N45">
+        <v>15.436</v>
+      </c>
       <c r="O45">
         <v>7.9950000000000001</v>
       </c>
@@ -1932,52 +2060,52 @@
         <v>64</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ref="C46" si="19">SUM(C36:C45)</f>
+        <f t="shared" ref="C46" si="21">SUM(C36:C45)</f>
         <v>0</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ref="D46" si="20">SUM(D36:D45)</f>
+        <f t="shared" ref="D46" si="22">SUM(D36:D45)</f>
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" ref="E46" si="21">SUM(E36:E45)</f>
+        <f t="shared" ref="E46" si="23">SUM(E36:E45)</f>
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" ref="F46" si="22">SUM(F36:F45)</f>
+        <f t="shared" ref="F46" si="24">SUM(F36:F45)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" ref="G46" si="23">SUM(G36:G45)</f>
+        <f t="shared" ref="G46" si="25">SUM(G36:G45)</f>
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" ref="H46" si="24">SUM(H36:H45)</f>
+        <f t="shared" ref="H46" si="26">SUM(H36:H45)</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46" si="25">SUM(I36:I45)</f>
+        <f t="shared" ref="I46" si="27">SUM(I36:I45)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" ref="J46" si="26">SUM(J36:J45)</f>
+        <f t="shared" ref="J46" si="28">SUM(J36:J45)</f>
         <v>0</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" ref="K46" si="27">SUM(K36:K45)</f>
+        <f t="shared" ref="K46" si="29">SUM(K36:K45)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" ref="L46" si="28">SUM(L36:L45)</f>
+        <f t="shared" ref="L46" si="30">SUM(L36:L45)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" ref="M46" si="29">SUM(M36:M45)</f>
+        <f t="shared" ref="M46" si="31">SUM(M36:M45)</f>
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" ref="N46" si="30">SUM(N36:N45)</f>
-        <v>0</v>
+        <f>SUM(N36:N45)</f>
+        <v>94.603000000000009</v>
       </c>
       <c r="O46" s="2">
         <f>SUM(O36:O45)</f>
@@ -1988,7 +2116,7 @@
         <v>106.60699999999999</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" ref="P46:Q46" si="31">SUM(Q36:Q45)</f>
+        <f t="shared" ref="Q46" si="32">SUM(Q36:Q45)</f>
         <v>100.072</v>
       </c>
     </row>
@@ -1996,6 +2124,9 @@
       <c r="B47" t="s">
         <v>65</v>
       </c>
+      <c r="N47">
+        <v>116.72499999999999</v>
+      </c>
       <c r="O47">
         <v>116.73699999999999</v>
       </c>
@@ -2010,6 +2141,9 @@
       <c r="B48" t="s">
         <v>66</v>
       </c>
+      <c r="N48">
+        <v>4.0350000000000001</v>
+      </c>
       <c r="O48">
         <v>3.8690000000000002</v>
       </c>
@@ -2024,6 +2158,9 @@
       <c r="B49" t="s">
         <v>67</v>
       </c>
+      <c r="N49">
+        <v>10.09</v>
+      </c>
       <c r="O49">
         <v>9.9440000000000008</v>
       </c>
@@ -2038,6 +2175,9 @@
       <c r="B50" t="s">
         <v>68</v>
       </c>
+      <c r="N50">
+        <v>174.02500000000001</v>
+      </c>
       <c r="O50">
         <v>206.797</v>
       </c>
@@ -2052,6 +2192,9 @@
       <c r="B51" t="s">
         <v>69</v>
       </c>
+      <c r="N51">
+        <v>5.2430000000000003</v>
+      </c>
       <c r="O51">
         <v>7.0490000000000004</v>
       </c>
@@ -2066,6 +2209,9 @@
       <c r="B52" t="s">
         <v>84</v>
       </c>
+      <c r="N52">
+        <v>2.8420000000000001</v>
+      </c>
       <c r="O52">
         <v>2.653</v>
       </c>
@@ -2080,6 +2226,9 @@
       <c r="B53" t="s">
         <v>70</v>
       </c>
+      <c r="N53">
+        <v>13.23</v>
+      </c>
       <c r="O53">
         <v>8.7289999999999992</v>
       </c>
@@ -2094,6 +2243,9 @@
       <c r="B54" t="s">
         <v>71</v>
       </c>
+      <c r="N54">
+        <v>30.481999999999999</v>
+      </c>
       <c r="O54">
         <v>37.091000000000001</v>
       </c>
@@ -2108,6 +2260,9 @@
       <c r="B55" t="s">
         <v>72</v>
       </c>
+      <c r="N55">
+        <v>22.13</v>
+      </c>
       <c r="O55">
         <v>22.297000000000001</v>
       </c>
@@ -2122,6 +2277,9 @@
       <c r="B56" t="s">
         <v>73</v>
       </c>
+      <c r="N56">
+        <v>14.337</v>
+      </c>
       <c r="O56">
         <v>13.358000000000001</v>
       </c>
@@ -2136,6 +2294,10 @@
       <c r="B57" t="s">
         <v>74</v>
       </c>
+      <c r="N57">
+        <f>1.844+1.869</f>
+        <v>3.7130000000000001</v>
+      </c>
       <c r="O57">
         <v>4.49</v>
       </c>
@@ -2151,52 +2313,52 @@
         <v>62</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" ref="C58:N58" si="32">SUM(C47:C57)+SUM(C36:C45)</f>
+        <f t="shared" ref="C58:N58" si="33">SUM(C47:C57)+SUM(C36:C45)</f>
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f>SUM(N47:N57)+SUM(N36:N45)</f>
+        <v>491.45500000000004</v>
       </c>
       <c r="O58" s="2">
         <f>SUM(O47:O57)+SUM(O36:O45)</f>
@@ -2220,59 +2382,59 @@
         <v>0</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" ref="D60:Q60" si="33">D61+D64+D65+D68+D69</f>
+        <f t="shared" ref="D60:Q60" si="34">D61+D64+D65+D68+D69</f>
         <v>0</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>79.347999999999999</v>
       </c>
       <c r="O60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>83.038000000000011</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>122.505</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>141.39600000000002</v>
       </c>
     </row>
@@ -2280,6 +2442,9 @@
       <c r="B61" t="s">
         <v>75</v>
       </c>
+      <c r="N61">
+        <v>22.702000000000002</v>
+      </c>
       <c r="O61">
         <v>27.239000000000001</v>
       </c>
@@ -2294,6 +2459,9 @@
       <c r="B62" t="s">
         <v>76</v>
       </c>
+      <c r="N62">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="O62">
         <v>0</v>
       </c>
@@ -2308,6 +2476,9 @@
       <c r="B63" t="s">
         <v>77</v>
       </c>
+      <c r="N63">
+        <v>18.488</v>
+      </c>
       <c r="O63">
         <v>1.742</v>
       </c>
@@ -2322,6 +2493,9 @@
       <c r="B64" t="s">
         <v>78</v>
       </c>
+      <c r="N64">
+        <v>1.123</v>
+      </c>
       <c r="O64">
         <v>1.3120000000000001</v>
       </c>
@@ -2336,6 +2510,9 @@
       <c r="B65" t="s">
         <v>79</v>
       </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
       <c r="O65">
         <v>0</v>
       </c>
@@ -2355,59 +2532,59 @@
         <v>0</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" ref="D66:Q66" si="34">SUM(D61:D65)</f>
+        <f t="shared" ref="D66:Q66" si="35">SUM(D61:D65)</f>
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>42.366</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>30.293000000000003</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>55.233000000000004</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>74.41</v>
       </c>
     </row>
@@ -2415,6 +2592,9 @@
       <c r="B67" t="s">
         <v>80</v>
       </c>
+      <c r="N67">
+        <v>4.2130000000000001</v>
+      </c>
       <c r="O67">
         <v>5.5110000000000001</v>
       </c>
@@ -2429,6 +2609,9 @@
       <c r="B68" t="s">
         <v>78</v>
       </c>
+      <c r="N68">
+        <v>55.055</v>
+      </c>
       <c r="O68">
         <v>53.999000000000002</v>
       </c>
@@ -2443,6 +2626,9 @@
       <c r="B69" t="s">
         <v>81</v>
       </c>
+      <c r="N69">
+        <v>0.46800000000000003</v>
+      </c>
       <c r="O69">
         <v>0.48799999999999999</v>
       </c>
@@ -2457,6 +2643,9 @@
       <c r="B70" t="s">
         <v>82</v>
       </c>
+      <c r="N70">
+        <v>3.45</v>
+      </c>
       <c r="O70">
         <v>3.45</v>
       </c>
@@ -2476,65 +2665,68 @@
         <v>0</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" ref="D71:Q71" si="35">SUM(D67:D70)+SUM(D61:D65)</f>
+        <f t="shared" ref="D71:Q71" si="36">SUM(D67:D70)+SUM(D61:D65)</f>
         <v>0</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>105.55200000000001</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>93.741000000000014</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>133.977</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>155.02800000000002</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{3078C05E-BD5A-40B4-A46B-F34212DC4837}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2542,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91111DD-5CDE-4F68-8A47-23FCD7E76A65}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
